--- a/Excel2Json/Test/feel.xlsx
+++ b/Excel2Json/Test/feel.xlsx
@@ -188,18 +188,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>表情动画名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>controller</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -241,6 +233,14 @@
   </si>
   <si>
     <t>right_pic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[10]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;32</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +742,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -757,13 +757,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -785,27 +785,27 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -813,13 +813,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -827,13 +827,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -841,10 +841,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
